--- a/Content/Tractors/Tractor_Infos3.xlsx
+++ b/Content/Tractors/Tractor_Infos3.xlsx
@@ -14,95 +14,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
-  <si>
-    <t>Powertrac Tractors</t>
-  </si>
-  <si>
-    <t>Euro 439</t>
-  </si>
-  <si>
-    <t>3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+  <si>
+    <t>Mahindra Tractors</t>
+  </si>
+  <si>
+    <t>475 DI</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>42 HP</t>
   </si>
   <si>
-    <t>36.12 HP</t>
+    <t>38 HP</t>
   </si>
   <si>
     <t>8 Forward + 2 Reverse</t>
   </si>
   <si>
-    <t>Multi Plate Oil Immersed Disc Brake</t>
-  </si>
-  <si>
-    <t>5000 hours/ 5 Year</t>
+    <t>Dry Disc Brakes / Oil Immersed</t>
+  </si>
+  <si>
+    <t>2000 Hours Or 2 Year</t>
   </si>
   <si>
     <t>Check Price</t>
   </si>
   <si>
-    <t>Powertrac Euro 439 Tractor is a popular tractor with all the advanced technological solutions. Tractor Junction comes with all the detailed information regarding the same for your convenience. Here, you can get all the details regarding the Powertrac 439 tractor including their complete features, mileage, review, price and many more.
-Powertrac Euro 439 Engine Capacity
-It comes with 42 HP and 3 cylinders. Powertrac Euro 439 engine capacity provides efficient mileage on the field. It is the best tractor, which provides high work efficiency. Powertrac tractor 439 is a great tractor which is made for long-duration tasks and has better functioning. This tractor also has a strong engine for the Indian farmers who work hard on the fields.
-The tractor has sufficient cylinders making it an effective tractor. Moreover, the tractor model offers the best combination of coolant and cleaning technology. Therefore, the Powertrac 439 model easily handles all the rigid and challenging farming and commercial tasks. 
-Powertrac Euro 439 Quality Features
-Tractor Powertrac 439 is a highly efficient tractor model which makes farming applications productive. Due to this tractor model, farmers earn highly and make farming businesses profitable. The tractor comes with a Single / Dual (Optional) clutch. It has 8 Forward + 2 Reverse gearboxes. It is manufactured with Multi Plate Oil Immersed Disc Brake. The steering type of tractor model is smooth Power Steering / Mechanical Single drop arm option Steering. It offers 50 litre large fuel tank capacity for long hours on farms. Also, this tractor has 1600 Kg strong pulling capacity.
-USP Of Powertrac Euro 439 Tractor
-Powertrac Euro 439 never compromises with its features, which makes it an efficient tractor. Therefore, the Powertrac 439 tractor price is very affordable, and it comes as the best tractor for farmers who need to increase their farm productivity. On the other hand, Powertrac 439 price is cost-effective and provides every facility according to the customer's requirement. It gives extreme relief to the farmer’s budget and gives satisfactory results. 
-Powertrac Euro 439 Tractor Price
-Powertrac Euro 439 Price in India is Rs. 7.20-7.40 Lakh* (Ex-Showroom Price) which is reasonable. It is a super price fixed by the company which easily fits in the budget of every farmer. The Powertrac tractor is an Indian oriented company that always tries to satisfy Indian farmers. This tractor is manufactured according to the requirements of farmers. So, they can smoothly work on the farm in their budget.
-Powertrac Euro 439 Tractor - Still A Suitable Buy 
-Powertrac Euro 439 is a classic tractor that comes with all the effective and efficient qualities. It provides high performance, high fuel efficiency and increased yield. This tractor made a versatile tractor that you can use in any type of farming work. It is easy to handle and completely worth your money.
-The company launched Powertrac Euro 439 with extra comfort and safety features for farmers so that they can quickly work on the farms effortlessly. This mind-blowing tractor comes with advanced technology solutions that make farming work far better than before. Just after its launch, Powertrac Euro 439 won Indian farmers' hearts with their performance. It is worth a money deal for the farmers. Along with all of this, the Powertrac 439 price is another reason for its fame and popularity among the farmers. Along with all Powertrac 439 specifications, Powertrac 439 on road price is also the main reason for its high demand.
-Are You Searching For A Perfect Tractor For Your Farming? 
-Yes, then the tremendous Powertrac Euro 439 is the ideal tractor for you. It is a complete paisa vasool deal for every Indian farmer. This tractor is perfectly designed according to the Indian region so that every Indian farmer can work with it efficiently. It provides guaranteed performance on the farms. At Tractor Junction, you can also get an updated Powertrac Euro 439 Tractor on road price 2024.
-Powertrac Euro 439 Tractor At Tractor Junction
-For other inquiries related to Powertrac Euro 439, stay tuned with TractorJunction. Here, you can get Powertrac Euro 439 On Road Price 2024. You can find videos related to the Powertrac Euro 439 tractor from which you can get more information about the tractor model.  
-Get latest Powertrac Euro 439 on road price Jan 17, 2024.</t>
-  </si>
-  <si>
-    <t>2339 CC</t>
-  </si>
-  <si>
-    <t>2200 RPM</t>
+    <t>Mahindra 475 DI tractor features and specifications are available at Tractor Junction. Mahindra Tractor is one of the most reliable names for manufactures efficient tractor models and the Mahindra 475 DI model is one of them. It is filled with many attractive features with a catchy design, which a farmer always wants to buy.
+Mahindra 475 DI price ranges from Rs 6,45,000 to Rs 6,75,000 in India. It is a 42 HP tractor fitted with a 2730 CC engine and delivers maximum output with 4 cylinders. Mahindra 475 DI has an 8 Forward + 2 Reverse gearbox with a lifting capacity of 1500 kg. 
+Mahindra Tractor has its own identity among many brands and it has big popularity because of its extravagant tractor models. A farmer always seeks for the best tractor, which can live up to their farm’s expectations. And Mahindra Tractor is the one who manufactures models according to the farmer’s requirements. And, this tractor is one of them. It comes with all the latest technological features for high performance and better results. Indian farmers opt for this tractor because of its productivity and affordability. The company provides this tractor according to the average farmer's budget and needs. So, it is a perfect tractor to date in this range.
+Why Mahindra 475 DI Tractor is Best?
+At Tractor Junction, you can get complete details regarding the  Mahindra 475 DI tractor price, mileage, features, etc. It has a superb engine specification that provides efficient Mahindra 475 DI Tractor Mileage on the Indian fields. The Mahindra tractor company offers a reasonable Mahindra 475 DI Tractor Price in India with all the features. 
+Get a fantastic 475 Mahindra tractor at a fair cost with unique features and bizarre design. The Mahindra 475 DI tractor on road price is very budget-friendly. Farmers can easily buy it without negotiating their other livelihood needs. Tractor Mahindra 475 DI on-road price gives an ultimate satisfaction to the farmers and helps them into a subtle finance. It Was launched in the market after testing, and all the features in this tractor are added, keeping farmers safety in mind. 
+Mahindra 475 Tractor Features
+The 475 Mahindra tractor always lives up to your expectations and fulfils all your conditions. It helps you to achieve all agriculture tasks with ease. With Mahindra 475 hp, it has many excellent features and technical specifications, which allows you to choose an efficient tractor. Mahindra tractor 475 DI is one of the most reliable tractors and becomes the top model of Mahindra. Mahindra 475 DI consists of numerous tools and features which are profitable for all farming purposes. The valuable features of this Mahindra Tractor model are displayed below.
+Mahindra 475 tractor has a Dry Type Clutch with an option of Dual types. which offers hurdle free work.
+Mahindra 475 DI tractor also has both Dry Disc or Oil Immersed Disc Brakes for better functioning at the fields with less slippage. 
+The tractor has both Mechanical and Power Steering if needed, which provide smooth work on the field.
+Mahindra 475 DI has Best in class PTO power of 38 HP and an impressive hydraulic lifting capacity of 1500kg. It can lift almost all the implements, including plow, cultivator, rotavator, disc, and many more. 
+The Mahindra 475 DI tractor is functional, designed with relaxed seating and levers within a simple extension.
+The advanced hydraulics of Mahindra 475 DI allows the utilization of rotavators with comfort.
+Mahindra 475 DI comes with 48 liters of fuel holding capacity, which provides sufficient fuel for more extended agricultural activities. 
+Mahindra 475 DI arrives with a 6 spline PTO with a speed of 540 rounds.
+Mahindra 475 DI Tractor Price In India
+Mahindra 475 price starts from ₹ 6,45,000 and goes up to ₹ 6,75,000* (Ex-Showroom Price) in India. Mahindra DI 475 price is very affordable and reasonable for the given features. On-road price of Mahindra 475 DI in India is different in several states and regions of India. All small and marginal farmers can easily afford Mahindra 475 DI tractor on road price. Mahindra 475 price is suitable for every farmer that wants a perfect tractor in an affordable range and it also includes many advanced features at an affordable price.
+Mahindra 475 Tractor Engine Capacity
+Mahindra 475 DI is a 42 HP Tractor. The tractor has a 2730 CC engine which generates 1900 engine rated RPM and it is very powerful for the given HP. To boost Mahindra 475 power of the tractor the Tractor has 4 cylinders which provide better functioning and durability. Find here Mahindra 475 sarpanch price. The Mahindra 475 tractor is very useful at Indian Fields and can be used for tough usages.
+Mahindra 475 Economic Tractor 
+Because of its exceptional performance and reliability, the Mahindra 475 new model becomes the farmer’s first priority. Mahindra 475 is the most economical tractor in this range. It comes with all the productive quality features that provide sufficient work on the field. Mahindra 475 tractor and Mahindra 475 price are the best for all the Indian farmers because they have all those qualities that will surely satisfy your farming needs. Mahindra tractor 475 DI is an excellent performer in the field.
+Mahindra tractor 475 Model price is superbly fixed that easily fits farmers budget. On road price of the Mahindra 475 DI Tractor is an adjusting price that fits in the budget of every Indian farmer. For getting more information about the Mahindra tractor 475 model and other models of Mahindra. Then visit our website TractorJunction.com
+Related Search:
+What is the on-road price of Mahindra 475 in India?
+What is the price of Mahindra 475 in India?
+What is the lowest price of Mahindra 475 in India?
+Get latest Mahindra 475 DI on road price Jan 18, 2024.</t>
+  </si>
+  <si>
+    <t>2730 CC</t>
+  </si>
+  <si>
+    <t>1900 RPM</t>
   </si>
   <si>
     <t>Water Cooled</t>
   </si>
   <si>
-    <t>Bigger Oil Bath</t>
-  </si>
-  <si>
-    <t>Center Shift /Side Shift</t>
-  </si>
-  <si>
-    <t>Single / Dual (Optional) clutch</t>
-  </si>
-  <si>
-    <t>Power Steering / Mechanical Single drop arm option</t>
-  </si>
-  <si>
-    <t>Single</t>
+    <t>Dry Type</t>
+  </si>
+  <si>
+    <t>Inline</t>
+  </si>
+  <si>
+    <t>Partial Constant Mesh / Sliding mesh</t>
+  </si>
+  <si>
+    <t>Dry Type Single / Dual (Optional)</t>
+  </si>
+  <si>
+    <t>12 V 75 AH</t>
+  </si>
+  <si>
+    <t>12 V 36 A</t>
+  </si>
+  <si>
+    <t>2.74 - 30.48 kmph</t>
+  </si>
+  <si>
+    <t>4.16 - 12.42 kmph</t>
+  </si>
+  <si>
+    <t>Mechanical/Power Steering (optional)</t>
+  </si>
+  <si>
+    <t>Single Drop Arm</t>
+  </si>
+  <si>
+    <t>6 SPLINE</t>
   </si>
   <si>
     <t>540</t>
   </si>
   <si>
-    <t>1850 KG</t>
-  </si>
-  <si>
-    <t>2010 MM</t>
-  </si>
-  <si>
-    <t>400 MM</t>
-  </si>
-  <si>
-    <t>1600 Kg</t>
-  </si>
-  <si>
-    <t>Sensi-1</t>
+    <t>1950 KG</t>
+  </si>
+  <si>
+    <t>1945 MM</t>
+  </si>
+  <si>
+    <t>3260 MM</t>
+  </si>
+  <si>
+    <t>1625 MM</t>
+  </si>
+  <si>
+    <t>350 MM</t>
+  </si>
+  <si>
+    <t>3500 MM</t>
+  </si>
+  <si>
+    <t>1500 kg</t>
+  </si>
+  <si>
+    <t>High precision</t>
   </si>
   <si>
     <t>2 WD</t>
@@ -111,7 +148,10 @@
     <t>6.00 x 16</t>
   </si>
   <si>
-    <t>13.6 X 28</t>
+    <t>12.4 x 28 / 13.6 x 28</t>
+  </si>
+  <si>
+    <t>Top Link, Tools</t>
   </si>
   <si>
     <t>Launched</t>
@@ -204,7 +244,7 @@
     <t>Wheel_Base</t>
   </si>
   <si>
-    <t>Overall_Base</t>
+    <t>Overall_Length</t>
   </si>
   <si>
     <t>Overall_Width</t>
@@ -604,130 +644,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -773,53 +813,83 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S2" t="s">
         <v>5</v>
       </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
       </c>
       <c r="Z2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AB2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
       </c>
       <c r="AF2" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
       </c>
       <c r="AH2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AI2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AK2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
       </c>
       <c r="AO2" t="s">
         <v>7</v>
       </c>
       <c r="AP2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Tractors/Tractor_Infos3.xlsx
+++ b/Content/Tractors/Tractor_Infos3.xlsx
@@ -14,132 +14,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
-  <si>
-    <t>Mahindra Tractors</t>
-  </si>
-  <si>
-    <t>475 DI</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>42 HP</t>
-  </si>
-  <si>
-    <t>38 HP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+  <si>
+    <t>Sonalika Tractors</t>
+  </si>
+  <si>
+    <t>MM+ 39 DI</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>39 HP</t>
+  </si>
+  <si>
+    <t>33.7 HP</t>
   </si>
   <si>
     <t>8 Forward + 2 Reverse</t>
   </si>
   <si>
-    <t>Dry Disc Brakes / Oil Immersed</t>
-  </si>
-  <si>
-    <t>2000 Hours Or 2 Year</t>
+    <t>Oil immersed Brakes</t>
+  </si>
+  <si>
+    <t>2000 Hour or 2 Year</t>
   </si>
   <si>
     <t>Check Price</t>
   </si>
   <si>
-    <t>Mahindra 475 DI tractor features and specifications are available at Tractor Junction. Mahindra Tractor is one of the most reliable names for manufactures efficient tractor models and the Mahindra 475 DI model is one of them. It is filled with many attractive features with a catchy design, which a farmer always wants to buy.
-Mahindra 475 DI price ranges from Rs 6,45,000 to Rs 6,75,000 in India. It is a 42 HP tractor fitted with a 2730 CC engine and delivers maximum output with 4 cylinders. Mahindra 475 DI has an 8 Forward + 2 Reverse gearbox with a lifting capacity of 1500 kg. 
-Mahindra Tractor has its own identity among many brands and it has big popularity because of its extravagant tractor models. A farmer always seeks for the best tractor, which can live up to their farm’s expectations. And Mahindra Tractor is the one who manufactures models according to the farmer’s requirements. And, this tractor is one of them. It comes with all the latest technological features for high performance and better results. Indian farmers opt for this tractor because of its productivity and affordability. The company provides this tractor according to the average farmer's budget and needs. So, it is a perfect tractor to date in this range.
-Why Mahindra 475 DI Tractor is Best?
-At Tractor Junction, you can get complete details regarding the  Mahindra 475 DI tractor price, mileage, features, etc. It has a superb engine specification that provides efficient Mahindra 475 DI Tractor Mileage on the Indian fields. The Mahindra tractor company offers a reasonable Mahindra 475 DI Tractor Price in India with all the features. 
-Get a fantastic 475 Mahindra tractor at a fair cost with unique features and bizarre design. The Mahindra 475 DI tractor on road price is very budget-friendly. Farmers can easily buy it without negotiating their other livelihood needs. Tractor Mahindra 475 DI on-road price gives an ultimate satisfaction to the farmers and helps them into a subtle finance. It Was launched in the market after testing, and all the features in this tractor are added, keeping farmers safety in mind. 
-Mahindra 475 Tractor Features
-The 475 Mahindra tractor always lives up to your expectations and fulfils all your conditions. It helps you to achieve all agriculture tasks with ease. With Mahindra 475 hp, it has many excellent features and technical specifications, which allows you to choose an efficient tractor. Mahindra tractor 475 DI is one of the most reliable tractors and becomes the top model of Mahindra. Mahindra 475 DI consists of numerous tools and features which are profitable for all farming purposes. The valuable features of this Mahindra Tractor model are displayed below.
-Mahindra 475 tractor has a Dry Type Clutch with an option of Dual types. which offers hurdle free work.
-Mahindra 475 DI tractor also has both Dry Disc or Oil Immersed Disc Brakes for better functioning at the fields with less slippage. 
-The tractor has both Mechanical and Power Steering if needed, which provide smooth work on the field.
-Mahindra 475 DI has Best in class PTO power of 38 HP and an impressive hydraulic lifting capacity of 1500kg. It can lift almost all the implements, including plow, cultivator, rotavator, disc, and many more. 
-The Mahindra 475 DI tractor is functional, designed with relaxed seating and levers within a simple extension.
-The advanced hydraulics of Mahindra 475 DI allows the utilization of rotavators with comfort.
-Mahindra 475 DI comes with 48 liters of fuel holding capacity, which provides sufficient fuel for more extended agricultural activities. 
-Mahindra 475 DI arrives with a 6 spline PTO with a speed of 540 rounds.
-Mahindra 475 DI Tractor Price In India
-Mahindra 475 price starts from ₹ 6,45,000 and goes up to ₹ 6,75,000* (Ex-Showroom Price) in India. Mahindra DI 475 price is very affordable and reasonable for the given features. On-road price of Mahindra 475 DI in India is different in several states and regions of India. All small and marginal farmers can easily afford Mahindra 475 DI tractor on road price. Mahindra 475 price is suitable for every farmer that wants a perfect tractor in an affordable range and it also includes many advanced features at an affordable price.
-Mahindra 475 Tractor Engine Capacity
-Mahindra 475 DI is a 42 HP Tractor. The tractor has a 2730 CC engine which generates 1900 engine rated RPM and it is very powerful for the given HP. To boost Mahindra 475 power of the tractor the Tractor has 4 cylinders which provide better functioning and durability. Find here Mahindra 475 sarpanch price. The Mahindra 475 tractor is very useful at Indian Fields and can be used for tough usages.
-Mahindra 475 Economic Tractor 
-Because of its exceptional performance and reliability, the Mahindra 475 new model becomes the farmer’s first priority. Mahindra 475 is the most economical tractor in this range. It comes with all the productive quality features that provide sufficient work on the field. Mahindra 475 tractor and Mahindra 475 price are the best for all the Indian farmers because they have all those qualities that will surely satisfy your farming needs. Mahindra tractor 475 DI is an excellent performer in the field.
-Mahindra tractor 475 Model price is superbly fixed that easily fits farmers budget. On road price of the Mahindra 475 DI Tractor is an adjusting price that fits in the budget of every Indian farmer. For getting more information about the Mahindra tractor 475 model and other models of Mahindra. Then visit our website TractorJunction.com
-Related Search:
-What is the on-road price of Mahindra 475 in India?
-What is the price of Mahindra 475 in India?
-What is the lowest price of Mahindra 475 in India?
-Get latest Mahindra 475 DI on road price Jan 18, 2024.</t>
-  </si>
-  <si>
-    <t>2730 CC</t>
-  </si>
-  <si>
-    <t>1900 RPM</t>
+    <t>Sonalika MM+ 39 DI is an amazing and powerful tractor with a super attractive design. Sonalika MM+ 39 DI is an effective tractor launched by the Sonalika Tractor. The MM+ 39 DI comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Sonalika MM+ 39 DI Tractor. Check down below.
+Sonalika MM+ 39 DI Engine Capacity
+The tractor comes with 39 HP. Sonalika MM+ 39 DI engine capacity provides efficient mileage on the field. The Sonalika MM+ 39 DI is one of the powerful tractors and offers good mileage. The MM+ 39 DI Tractor has a capability to provide high performance on the field. Sonalika MM+ 39 DI comes with super power which is fuel efficient.
+Sonalika MM+ 39 DI Quality Features
+It has 8 Forward + 2 Reverse gearboxes.
+Along with this, Sonalika MM+ 39 DI has a superb kmph forward speed.
+Sonalika MM+ 39 DI manufactured with Oil immersed Brakes.
+Sonalika MM+ 39 DI Steering type is smooth Mechanical/Power Steering (optional).
+It offers a litre large fuel tank capacity for long hours on farms.
+Sonalika MM+ 39 DI has 1800 Kg strong Lifting capacity.
+This MM+ 39 DI tractor consists of multiple tread pattern tyres for the effective work. The size of the tyres are 6.00 x 16 front tyres and 13.6 x 28 reverse tyres.
+Sonalika MM+ 39 DI Tractor Price
+Sonalika MM+ 39 DI Price in India is Rs. 5.28-5.59 Lakh*. The MM+ 39 DI price is set according to the budget of Indian farmers. It is the main reason Sonalika MM+ 39 DI became popular among Indian farmers with its launch. For other inquiries related to Sonalika MM+ 39 DI, stay tuned with TractorJunction. You can find videos related to the MM+ 39 DI tractor from which you can get more information about Sonalika MM+ 39 DI. Here you can also get an updated Sonalika MM+ 39 DI Tractor on road price 2024.
+Why Tractor Junction for Sonalika MM+ 39 DI?
+You can get Sonalika MM+ 39 DI at Tractor Junction with exclusive features. If you have any further queries related to Sonalika MM+ 39 DI, you can contact us. Our customer executive will help you out and tell you all about Sonalika MM+ 39 DI. So, visit Tractor Junction and get Sonalika MM+ 39 DI with price and features. You can also compare Sonalika MM+ 39 DI with other tractors.
+Get latest Sonalika MM+ 39 DI on road price Jan 19, 2024.</t>
+  </si>
+  <si>
+    <t>2780 CC</t>
+  </si>
+  <si>
+    <t>1800 RPM</t>
   </si>
   <si>
     <t>Water Cooled</t>
   </si>
   <si>
-    <t>Dry Type</t>
-  </si>
-  <si>
-    <t>Inline</t>
-  </si>
-  <si>
-    <t>Partial Constant Mesh / Sliding mesh</t>
-  </si>
-  <si>
-    <t>Dry Type Single / Dual (Optional)</t>
-  </si>
-  <si>
-    <t>12 V 75 AH</t>
-  </si>
-  <si>
-    <t>12 V 36 A</t>
-  </si>
-  <si>
-    <t>2.74 - 30.48 kmph</t>
-  </si>
-  <si>
-    <t>4.16 - 12.42 kmph</t>
+    <t>Wet Type</t>
+  </si>
+  <si>
+    <t>Sliding Mesh</t>
+  </si>
+  <si>
+    <t>Single clutch</t>
+  </si>
+  <si>
+    <t>2.23 - 34.07 kmph</t>
   </si>
   <si>
     <t>Mechanical/Power Steering (optional)</t>
   </si>
   <si>
-    <t>Single Drop Arm</t>
-  </si>
-  <si>
-    <t>6 SPLINE</t>
+    <t>Reverse PTO</t>
   </si>
   <si>
     <t>540</t>
   </si>
   <si>
-    <t>1950 KG</t>
-  </si>
-  <si>
-    <t>1945 MM</t>
-  </si>
-  <si>
-    <t>3260 MM</t>
-  </si>
-  <si>
-    <t>1625 MM</t>
-  </si>
-  <si>
-    <t>350 MM</t>
-  </si>
-  <si>
-    <t>3500 MM</t>
-  </si>
-  <si>
-    <t>1500 kg</t>
-  </si>
-  <si>
-    <t>High precision</t>
+    <t>1970 MM</t>
+  </si>
+  <si>
+    <t>1800 Kg</t>
+  </si>
+  <si>
+    <t>Multi Sensing Point</t>
   </si>
   <si>
     <t>2 WD</t>
@@ -148,10 +106,10 @@
     <t>6.00 x 16</t>
   </si>
   <si>
-    <t>12.4 x 28 / 13.6 x 28</t>
-  </si>
-  <si>
-    <t>Top Link, Tools</t>
+    <t>13.6 x 28</t>
+  </si>
+  <si>
+    <t>Hook, Bumper, Drawbar, Hood, Toplink</t>
   </si>
   <si>
     <t>Launched</t>
@@ -644,130 +602,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -813,83 +771,53 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
       </c>
       <c r="S2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
         <v>18</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AC2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AH2" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AI2" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AJ2" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AK2" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AL2" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AM2" t="s">
         <v>26</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
       </c>
       <c r="AO2" t="s">
         <v>7</v>
       </c>
       <c r="AP2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Tractors/Tractor_Infos3.xlsx
+++ b/Content/Tractors/Tractor_Infos3.xlsx
@@ -14,102 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
-  <si>
-    <t>Sonalika Tractors</t>
-  </si>
-  <si>
-    <t>MM+ 39 DI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+  <si>
+    <t>Eicher Tractors</t>
+  </si>
+  <si>
+    <t>333 Super Plus (five Star)</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>39 HP</t>
-  </si>
-  <si>
-    <t>33.7 HP</t>
+    <t>36 HP</t>
   </si>
   <si>
     <t>8 Forward + 2 Reverse</t>
   </si>
   <si>
-    <t>Oil immersed Brakes</t>
-  </si>
-  <si>
-    <t>2000 Hour or 2 Year</t>
+    <t>Oil Immersed Brake</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Check Price</t>
   </si>
   <si>
-    <t>Sonalika MM+ 39 DI is an amazing and powerful tractor with a super attractive design. Sonalika MM+ 39 DI is an effective tractor launched by the Sonalika Tractor. The MM+ 39 DI comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Sonalika MM+ 39 DI Tractor. Check down below.
-Sonalika MM+ 39 DI Engine Capacity
-The tractor comes with 39 HP. Sonalika MM+ 39 DI engine capacity provides efficient mileage on the field. The Sonalika MM+ 39 DI is one of the powerful tractors and offers good mileage. The MM+ 39 DI Tractor has a capability to provide high performance on the field. Sonalika MM+ 39 DI comes with super power which is fuel efficient.
-Sonalika MM+ 39 DI Quality Features
+    <t>Eicher 333 Super Plus (five Star) is an amazing and powerful tractor with a super attractive design. Eicher 333 Super Plus (five Star) is an effective tractor launched by the Eicher Tractor. The 333 Super Plus (five Star) comes with all the advanced technology for effective work on the farm. Here we show all the features, quality, and fair price of the Eicher 333 Super Plus (five Star) Tractor. Check down below.
+Eicher 333 Super Plus (five Star) Engine Capacity
+The tractor comes with 36 HP. Eicher 333 Super Plus (five Star) engine capacity provides efficient mileage on the field. The Eicher 333 Super Plus (five Star) is one of the powerful tractors and offers good mileage. The 333 Super Plus (five Star) Tractor has a capability to provide high performance on the field. Eicher 333 Super Plus (five Star) comes with super power which is fuel efficient.
+Eicher 333 Super Plus (five Star) Quality Features
 It has 8 Forward + 2 Reverse gearboxes.
-Along with this, Sonalika MM+ 39 DI has a superb kmph forward speed.
-Sonalika MM+ 39 DI manufactured with Oil immersed Brakes.
-Sonalika MM+ 39 DI Steering type is smooth Mechanical/Power Steering (optional).
+Along with this, Eicher 333 Super Plus (five Star) has a superb kmph forward speed.
+Eicher 333 Super Plus (five Star) manufactured with Oil Immersed Brake.
+Eicher 333 Super Plus (five Star) Steering type is smooth .
 It offers a litre large fuel tank capacity for long hours on farms.
-Sonalika MM+ 39 DI has 1800 Kg strong Lifting capacity.
-This MM+ 39 DI tractor consists of multiple tread pattern tyres for the effective work. The size of the tyres are 6.00 x 16 front tyres and 13.6 x 28 reverse tyres.
-Sonalika MM+ 39 DI Tractor Price
-Sonalika MM+ 39 DI Price in India is Rs. 5.28-5.59 Lakh*. The MM+ 39 DI price is set according to the budget of Indian farmers. It is the main reason Sonalika MM+ 39 DI became popular among Indian farmers with its launch. For other inquiries related to Sonalika MM+ 39 DI, stay tuned with TractorJunction. You can find videos related to the MM+ 39 DI tractor from which you can get more information about Sonalika MM+ 39 DI. Here you can also get an updated Sonalika MM+ 39 DI Tractor on road price 2024.
-Why Tractor Junction for Sonalika MM+ 39 DI?
-You can get Sonalika MM+ 39 DI at Tractor Junction with exclusive features. If you have any further queries related to Sonalika MM+ 39 DI, you can contact us. Our customer executive will help you out and tell you all about Sonalika MM+ 39 DI. So, visit Tractor Junction and get Sonalika MM+ 39 DI with price and features. You can also compare Sonalika MM+ 39 DI with other tractors.
-Get latest Sonalika MM+ 39 DI on road price Jan 19, 2024.</t>
-  </si>
-  <si>
-    <t>2780 CC</t>
-  </si>
-  <si>
-    <t>1800 RPM</t>
+Eicher 333 Super Plus (five Star) has 1650 kg strong Lifting capacity.
+This 333 Super Plus (five Star) tractor consists of multiple tread pattern tyres for the effective work
+Eicher 333 Super Plus (five Star) Tractor Price
+Eicher 333 Super Plus (five Star) Price in India is Rs. 6.10-6.20 Lakh*. The 333 Super Plus (five Star) price is set according to the budget of Indian farmers. It is the main reason Eicher 333 Super Plus (five Star) became popular among Indian farmers with its launch. For other inquiries related to Eicher 333 Super Plus (five Star), stay tuned with TractorJunction. You can find videos related to the 333 Super Plus (five Star) tractor from which you can get more information about Eicher 333 Super Plus (five Star). Here you can also get an updated Eicher 333 Super Plus (five Star) Tractor on road price 2024.
+Why Tractor Junction for Eicher 333 Super Plus (five Star)?
+You can get Eicher 333 Super Plus (five Star) at Tractor Junction with exclusive features. If you have any further queries related to Eicher 333 Super Plus (five Star), you can contact us. Our customer executive will help you out and tell you all about Eicher 333 Super Plus (five Star). So, visit Tractor Junction and get Eicher 333 Super Plus (five Star) with price and features. You can also compare Eicher 333 Super Plus (five Star) with other tractors.
+Get latest Eicher 333 Super Plus (five Star) on road price Jan 20, 2024.</t>
+  </si>
+  <si>
+    <t>2365 CC</t>
   </si>
   <si>
     <t>Water Cooled</t>
   </si>
   <si>
-    <t>Wet Type</t>
-  </si>
-  <si>
-    <t>Sliding Mesh</t>
-  </si>
-  <si>
-    <t>Single clutch</t>
-  </si>
-  <si>
-    <t>2.23 - 34.07 kmph</t>
-  </si>
-  <si>
-    <t>Mechanical/Power Steering (optional)</t>
-  </si>
-  <si>
-    <t>Reverse PTO</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>1970 MM</t>
-  </si>
-  <si>
-    <t>1800 Kg</t>
-  </si>
-  <si>
-    <t>Multi Sensing Point</t>
+    <t>Centre Shift Option; Side Shift Partial Constant Mesh</t>
+  </si>
+  <si>
+    <t>Single/Dual</t>
+  </si>
+  <si>
+    <t>30.84 kmph</t>
+  </si>
+  <si>
+    <t>1650 kg</t>
   </si>
   <si>
     <t>2 WD</t>
-  </si>
-  <si>
-    <t>6.00 x 16</t>
-  </si>
-  <si>
-    <t>13.6 x 28</t>
-  </si>
-  <si>
-    <t>Hook, Bumper, Drawbar, Hood, Toplink</t>
   </si>
   <si>
     <t>Launched</t>
@@ -602,130 +569,130 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -741,83 +708,47 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AH2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AJ2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AP2" t="s">
         <v>16</v>
-      </c>
-      <c r="X2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
